--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1367"/>
+  <dimension ref="A1:H1368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35783,13 +35783,39 @@
       <c r="A1367" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B1367" t="inlineStr"/>
-      <c r="C1367" t="inlineStr"/>
-      <c r="D1367" t="inlineStr"/>
-      <c r="E1367" t="inlineStr"/>
-      <c r="F1367" t="inlineStr"/>
-      <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr"/>
+      <c r="B1367" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B1368" t="inlineStr"/>
+      <c r="C1368" t="inlineStr"/>
+      <c r="D1368" t="inlineStr"/>
+      <c r="E1368" t="inlineStr"/>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="inlineStr"/>
+      <c r="H1368" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1368"/>
+  <dimension ref="A1:H1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35809,13 +35809,39 @@
       <c r="A1368" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B1368" t="inlineStr"/>
-      <c r="C1368" t="inlineStr"/>
-      <c r="D1368" t="inlineStr"/>
-      <c r="E1368" t="inlineStr"/>
-      <c r="F1368" t="inlineStr"/>
-      <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr"/>
+      <c r="B1368" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B1369" t="inlineStr"/>
+      <c r="C1369" t="inlineStr"/>
+      <c r="D1369" t="inlineStr"/>
+      <c r="E1369" t="inlineStr"/>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="inlineStr"/>
+      <c r="H1369" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1369"/>
+  <dimension ref="A1:H1370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35793,7 +35793,7 @@
         <v>8.82</v>
       </c>
       <c r="E1367" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F1367" t="n">
         <v>7.5</v>
@@ -35835,13 +35835,39 @@
       <c r="A1369" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B1369" t="inlineStr"/>
-      <c r="C1369" t="inlineStr"/>
-      <c r="D1369" t="inlineStr"/>
-      <c r="E1369" t="inlineStr"/>
-      <c r="F1369" t="inlineStr"/>
-      <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr"/>
+      <c r="B1369" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B1370" t="inlineStr"/>
+      <c r="C1370" t="inlineStr"/>
+      <c r="D1370" t="inlineStr"/>
+      <c r="E1370" t="inlineStr"/>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="inlineStr"/>
+      <c r="H1370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1371"/>
+  <dimension ref="A1:J1372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44111,15 +44111,47 @@
       <c r="A1371" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B1371" t="inlineStr"/>
-      <c r="C1371" t="inlineStr"/>
-      <c r="D1371" t="inlineStr"/>
-      <c r="E1371" t="inlineStr"/>
-      <c r="F1371" t="inlineStr"/>
-      <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr"/>
-      <c r="I1371" t="inlineStr"/>
-      <c r="J1371" t="inlineStr"/>
+      <c r="B1371" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>14.2175</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B1372" t="inlineStr"/>
+      <c r="C1372" t="inlineStr"/>
+      <c r="D1372" t="inlineStr"/>
+      <c r="E1372" t="inlineStr"/>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="inlineStr"/>
+      <c r="H1372" t="inlineStr"/>
+      <c r="I1372" t="inlineStr"/>
+      <c r="J1372" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1372"/>
+  <dimension ref="A1:J1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44143,15 +44143,47 @@
       <c r="A1372" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B1372" t="inlineStr"/>
-      <c r="C1372" t="inlineStr"/>
-      <c r="D1372" t="inlineStr"/>
-      <c r="E1372" t="inlineStr"/>
-      <c r="F1372" t="inlineStr"/>
-      <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr"/>
-      <c r="I1372" t="inlineStr"/>
-      <c r="J1372" t="inlineStr"/>
+      <c r="B1372" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>11.3175</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B1373" t="inlineStr"/>
+      <c r="C1373" t="inlineStr"/>
+      <c r="D1373" t="inlineStr"/>
+      <c r="E1373" t="inlineStr"/>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="inlineStr"/>
+      <c r="H1373" t="inlineStr"/>
+      <c r="I1373" t="inlineStr"/>
+      <c r="J1373" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1373"/>
+  <dimension ref="A1:J1374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44175,15 +44175,47 @@
       <c r="A1373" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B1373" t="inlineStr"/>
-      <c r="C1373" t="inlineStr"/>
-      <c r="D1373" t="inlineStr"/>
-      <c r="E1373" t="inlineStr"/>
-      <c r="F1373" t="inlineStr"/>
-      <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr"/>
-      <c r="I1373" t="inlineStr"/>
-      <c r="J1373" t="inlineStr"/>
+      <c r="B1373" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>10.5175</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B1374" t="inlineStr"/>
+      <c r="C1374" t="inlineStr"/>
+      <c r="D1374" t="inlineStr"/>
+      <c r="E1374" t="inlineStr"/>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="inlineStr"/>
+      <c r="H1374" t="inlineStr"/>
+      <c r="I1374" t="inlineStr"/>
+      <c r="J1374" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1374"/>
+  <dimension ref="A1:J1376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44207,15 +44207,79 @@
       <c r="A1374" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B1374" t="inlineStr"/>
-      <c r="C1374" t="inlineStr"/>
-      <c r="D1374" t="inlineStr"/>
-      <c r="E1374" t="inlineStr"/>
-      <c r="F1374" t="inlineStr"/>
-      <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr"/>
-      <c r="I1374" t="inlineStr"/>
-      <c r="J1374" t="inlineStr"/>
+      <c r="B1374" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>9.446250000000001</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>6.0025</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B1376" t="inlineStr"/>
+      <c r="C1376" t="inlineStr"/>
+      <c r="D1376" t="inlineStr"/>
+      <c r="E1376" t="inlineStr"/>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="inlineStr"/>
+      <c r="H1376" t="inlineStr"/>
+      <c r="I1376" t="inlineStr"/>
+      <c r="J1376" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1376"/>
+  <dimension ref="A1:J1377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44271,15 +44271,47 @@
       <c r="A1376" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B1376" t="inlineStr"/>
-      <c r="C1376" t="inlineStr"/>
-      <c r="D1376" t="inlineStr"/>
-      <c r="E1376" t="inlineStr"/>
-      <c r="F1376" t="inlineStr"/>
-      <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr"/>
-      <c r="I1376" t="inlineStr"/>
-      <c r="J1376" t="inlineStr"/>
+      <c r="B1376" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>5.0025</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B1377" t="inlineStr"/>
+      <c r="C1377" t="inlineStr"/>
+      <c r="D1377" t="inlineStr"/>
+      <c r="E1377" t="inlineStr"/>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="inlineStr"/>
+      <c r="H1377" t="inlineStr"/>
+      <c r="I1377" t="inlineStr"/>
+      <c r="J1377" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1377"/>
+  <dimension ref="A1:J1378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44303,15 +44303,47 @@
       <c r="A1377" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B1377" t="inlineStr"/>
-      <c r="C1377" t="inlineStr"/>
-      <c r="D1377" t="inlineStr"/>
-      <c r="E1377" t="inlineStr"/>
-      <c r="F1377" t="inlineStr"/>
-      <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr"/>
-      <c r="I1377" t="inlineStr"/>
-      <c r="J1377" t="inlineStr"/>
+      <c r="B1377" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>3.94625</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B1378" t="inlineStr"/>
+      <c r="C1378" t="inlineStr"/>
+      <c r="D1378" t="inlineStr"/>
+      <c r="E1378" t="inlineStr"/>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="inlineStr"/>
+      <c r="H1378" t="inlineStr"/>
+      <c r="I1378" t="inlineStr"/>
+      <c r="J1378" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1378"/>
+  <dimension ref="A1:J1379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44335,15 +44335,47 @@
       <c r="A1378" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B1378" t="inlineStr"/>
-      <c r="C1378" t="inlineStr"/>
-      <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr"/>
-      <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr"/>
-      <c r="I1378" t="inlineStr"/>
-      <c r="J1378" t="inlineStr"/>
+      <c r="B1378" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>7.788749999999999</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B1379" t="inlineStr"/>
+      <c r="C1379" t="inlineStr"/>
+      <c r="D1379" t="inlineStr"/>
+      <c r="E1379" t="inlineStr"/>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr"/>
+      <c r="H1379" t="inlineStr"/>
+      <c r="I1379" t="inlineStr"/>
+      <c r="J1379" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1379"/>
+  <dimension ref="A1:J1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44367,15 +44367,47 @@
       <c r="A1379" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B1379" t="inlineStr"/>
-      <c r="C1379" t="inlineStr"/>
-      <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr"/>
-      <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr"/>
-      <c r="H1379" t="inlineStr"/>
-      <c r="I1379" t="inlineStr"/>
-      <c r="J1379" t="inlineStr"/>
+      <c r="B1379" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>8.002500000000001</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B1380" t="inlineStr"/>
+      <c r="C1380" t="inlineStr"/>
+      <c r="D1380" t="inlineStr"/>
+      <c r="E1380" t="inlineStr"/>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="inlineStr"/>
+      <c r="H1380" t="inlineStr"/>
+      <c r="I1380" t="inlineStr"/>
+      <c r="J1380" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1380"/>
+  <dimension ref="A1:J1381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44399,15 +44399,47 @@
       <c r="A1380" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="B1380" t="inlineStr"/>
-      <c r="C1380" t="inlineStr"/>
-      <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr"/>
-      <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr"/>
-      <c r="I1380" t="inlineStr"/>
-      <c r="J1380" t="inlineStr"/>
+      <c r="B1380" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>9.946250000000001</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B1381" t="inlineStr"/>
+      <c r="C1381" t="inlineStr"/>
+      <c r="D1381" t="inlineStr"/>
+      <c r="E1381" t="inlineStr"/>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="inlineStr"/>
+      <c r="H1381" t="inlineStr"/>
+      <c r="I1381" t="inlineStr"/>
+      <c r="J1381" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1381"/>
+  <dimension ref="A1:J1382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44431,15 +44431,47 @@
       <c r="A1381" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="B1381" t="inlineStr"/>
-      <c r="C1381" t="inlineStr"/>
-      <c r="D1381" t="inlineStr"/>
-      <c r="E1381" t="inlineStr"/>
-      <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr"/>
-      <c r="I1381" t="inlineStr"/>
-      <c r="J1381" t="inlineStr"/>
+      <c r="B1381" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>13.03125</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B1382" t="inlineStr"/>
+      <c r="C1382" t="inlineStr"/>
+      <c r="D1382" t="inlineStr"/>
+      <c r="E1382" t="inlineStr"/>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="inlineStr"/>
+      <c r="H1382" t="inlineStr"/>
+      <c r="I1382" t="inlineStr"/>
+      <c r="J1382" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1382"/>
+  <dimension ref="A1:J1383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44463,15 +44463,47 @@
       <c r="A1382" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="B1382" t="inlineStr"/>
-      <c r="C1382" t="inlineStr"/>
-      <c r="D1382" t="inlineStr"/>
-      <c r="E1382" t="inlineStr"/>
-      <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr"/>
-      <c r="I1382" t="inlineStr"/>
-      <c r="J1382" t="inlineStr"/>
+      <c r="B1382" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>12</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B1383" t="inlineStr"/>
+      <c r="C1383" t="inlineStr"/>
+      <c r="D1383" t="inlineStr"/>
+      <c r="E1383" t="inlineStr"/>
+      <c r="F1383" t="inlineStr"/>
+      <c r="G1383" t="inlineStr"/>
+      <c r="H1383" t="inlineStr"/>
+      <c r="I1383" t="inlineStr"/>
+      <c r="J1383" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1383"/>
+  <dimension ref="A1:J1384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44495,15 +44495,47 @@
       <c r="A1383" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="B1383" t="inlineStr"/>
-      <c r="C1383" t="inlineStr"/>
-      <c r="D1383" t="inlineStr"/>
-      <c r="E1383" t="inlineStr"/>
-      <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr"/>
-      <c r="H1383" t="inlineStr"/>
-      <c r="I1383" t="inlineStr"/>
-      <c r="J1383" t="inlineStr"/>
+      <c r="B1383" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>12.5025</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B1384" t="inlineStr"/>
+      <c r="C1384" t="inlineStr"/>
+      <c r="D1384" t="inlineStr"/>
+      <c r="E1384" t="inlineStr"/>
+      <c r="F1384" t="inlineStr"/>
+      <c r="G1384" t="inlineStr"/>
+      <c r="H1384" t="inlineStr"/>
+      <c r="I1384" t="inlineStr"/>
+      <c r="J1384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1384"/>
+  <dimension ref="A1:J1385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44527,15 +44527,47 @@
       <c r="A1384" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="B1384" t="inlineStr"/>
-      <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="inlineStr"/>
-      <c r="E1384" t="inlineStr"/>
-      <c r="F1384" t="inlineStr"/>
-      <c r="G1384" t="inlineStr"/>
-      <c r="H1384" t="inlineStr"/>
-      <c r="I1384" t="inlineStr"/>
-      <c r="J1384" t="inlineStr"/>
+      <c r="B1384" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>7.899999999999999</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>10.2175</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1385" t="inlineStr"/>
+      <c r="C1385" t="inlineStr"/>
+      <c r="D1385" t="inlineStr"/>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
+      <c r="G1385" t="inlineStr"/>
+      <c r="H1385" t="inlineStr"/>
+      <c r="I1385" t="inlineStr"/>
+      <c r="J1385" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1385"/>
+  <dimension ref="A1:J1386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43248,7 +43248,7 @@
         <v>44136</v>
       </c>
       <c r="B1344" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C1344" t="n">
         <v>9.399999999999999</v>
@@ -43269,10 +43269,10 @@
         <v>9.5</v>
       </c>
       <c r="I1344" t="n">
-        <v>10.65</v>
+        <v>10.63</v>
       </c>
       <c r="J1344" t="n">
-        <v>10.64625</v>
+        <v>10.63125</v>
       </c>
     </row>
     <row r="1345">
@@ -43571,7 +43571,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="C1354" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="D1354" t="n">
         <v>7.92</v>
@@ -43589,10 +43589,10 @@
         <v>5.6</v>
       </c>
       <c r="I1354" t="n">
-        <v>6.49</v>
+        <v>6.47</v>
       </c>
       <c r="J1354" t="n">
-        <v>6.48875</v>
+        <v>6.47375</v>
       </c>
     </row>
     <row r="1355">
@@ -44182,7 +44182,7 @@
         <v>9.1</v>
       </c>
       <c r="D1373" t="n">
-        <v>11.62</v>
+        <v>11.52</v>
       </c>
       <c r="E1373" t="n">
         <v>10.2</v>
@@ -44197,10 +44197,10 @@
         <v>9.5</v>
       </c>
       <c r="I1373" t="n">
-        <v>10.52</v>
+        <v>10.5</v>
       </c>
       <c r="J1373" t="n">
-        <v>10.5175</v>
+        <v>10.5025</v>
       </c>
     </row>
     <row r="1374">
@@ -44559,15 +44559,47 @@
       <c r="A1385" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="B1385" t="inlineStr"/>
-      <c r="C1385" t="inlineStr"/>
-      <c r="D1385" t="inlineStr"/>
-      <c r="E1385" t="inlineStr"/>
-      <c r="F1385" t="inlineStr"/>
-      <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr"/>
-      <c r="I1385" t="inlineStr"/>
-      <c r="J1385" t="inlineStr"/>
+      <c r="B1385" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>9.473750000000001</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B1386" t="inlineStr"/>
+      <c r="C1386" t="inlineStr"/>
+      <c r="D1386" t="inlineStr"/>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
+      <c r="G1386" t="inlineStr"/>
+      <c r="H1386" t="inlineStr"/>
+      <c r="I1386" t="inlineStr"/>
+      <c r="J1386" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1386"/>
+  <dimension ref="A1:J1387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44591,15 +44591,47 @@
       <c r="A1386" s="2" t="n">
         <v>45413</v>
       </c>
-      <c r="B1386" t="inlineStr"/>
-      <c r="C1386" t="inlineStr"/>
-      <c r="D1386" t="inlineStr"/>
-      <c r="E1386" t="inlineStr"/>
-      <c r="F1386" t="inlineStr"/>
-      <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="inlineStr"/>
-      <c r="I1386" t="inlineStr"/>
-      <c r="J1386" t="inlineStr"/>
+      <c r="B1386" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>5.27375</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B1387" t="inlineStr"/>
+      <c r="C1387" t="inlineStr"/>
+      <c r="D1387" t="inlineStr"/>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
+      <c r="G1387" t="inlineStr"/>
+      <c r="H1387" t="inlineStr"/>
+      <c r="I1387" t="inlineStr"/>
+      <c r="J1387" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1387"/>
+  <dimension ref="A1:J1388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44623,15 +44623,47 @@
       <c r="A1387" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="B1387" t="inlineStr"/>
-      <c r="C1387" t="inlineStr"/>
-      <c r="D1387" t="inlineStr"/>
-      <c r="E1387" t="inlineStr"/>
-      <c r="F1387" t="inlineStr"/>
-      <c r="G1387" t="inlineStr"/>
-      <c r="H1387" t="inlineStr"/>
-      <c r="I1387" t="inlineStr"/>
-      <c r="J1387" t="inlineStr"/>
+      <c r="B1387" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>5.97375</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1388" t="inlineStr"/>
+      <c r="C1388" t="inlineStr"/>
+      <c r="D1388" t="inlineStr"/>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
+      <c r="G1388" t="inlineStr"/>
+      <c r="H1388" t="inlineStr"/>
+      <c r="I1388" t="inlineStr"/>
+      <c r="J1388" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1388"/>
+  <dimension ref="A1:J1389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44655,15 +44655,47 @@
       <c r="A1388" s="2" t="n">
         <v>45474</v>
       </c>
-      <c r="B1388" t="inlineStr"/>
-      <c r="C1388" t="inlineStr"/>
-      <c r="D1388" t="inlineStr"/>
-      <c r="E1388" t="inlineStr"/>
-      <c r="F1388" t="inlineStr"/>
-      <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr"/>
-      <c r="I1388" t="inlineStr"/>
-      <c r="J1388" t="inlineStr"/>
+      <c r="B1388" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>4.97375</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1389" t="inlineStr"/>
+      <c r="C1389" t="inlineStr"/>
+      <c r="D1389" t="inlineStr"/>
+      <c r="E1389" t="inlineStr"/>
+      <c r="F1389" t="inlineStr"/>
+      <c r="G1389" t="inlineStr"/>
+      <c r="H1389" t="inlineStr"/>
+      <c r="I1389" t="inlineStr"/>
+      <c r="J1389" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -432,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1389"/>
+  <dimension ref="A1:J1390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44687,15 +44686,47 @@
       <c r="A1389" s="2" t="n">
         <v>45505</v>
       </c>
-      <c r="B1389" t="inlineStr"/>
-      <c r="C1389" t="inlineStr"/>
-      <c r="D1389" t="inlineStr"/>
-      <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr"/>
-      <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr"/>
-      <c r="I1389" t="inlineStr"/>
-      <c r="J1389" t="inlineStr"/>
+      <c r="B1389" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B1390" t="inlineStr"/>
+      <c r="C1390" t="inlineStr"/>
+      <c r="D1390" t="inlineStr"/>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="inlineStr"/>
+      <c r="G1390" t="inlineStr"/>
+      <c r="H1390" t="inlineStr"/>
+      <c r="I1390" t="inlineStr"/>
+      <c r="J1390" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1390"/>
+  <dimension ref="A1:J1391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44718,15 +44718,47 @@
       <c r="A1390" s="2" t="n">
         <v>45536</v>
       </c>
-      <c r="B1390" t="inlineStr"/>
-      <c r="C1390" t="inlineStr"/>
-      <c r="D1390" t="inlineStr"/>
-      <c r="E1390" t="inlineStr"/>
-      <c r="F1390" t="inlineStr"/>
-      <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="inlineStr"/>
-      <c r="I1390" t="inlineStr"/>
-      <c r="J1390" t="inlineStr"/>
+      <c r="B1390" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>6.859999999999999</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1391" t="inlineStr"/>
+      <c r="C1391" t="inlineStr"/>
+      <c r="D1391" t="inlineStr"/>
+      <c r="E1391" t="inlineStr"/>
+      <c r="F1391" t="inlineStr"/>
+      <c r="G1391" t="inlineStr"/>
+      <c r="H1391" t="inlineStr"/>
+      <c r="I1391" t="inlineStr"/>
+      <c r="J1391" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1391"/>
+  <dimension ref="A1:J1392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44750,15 +44750,47 @@
       <c r="A1391" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B1391" t="inlineStr"/>
-      <c r="C1391" t="inlineStr"/>
-      <c r="D1391" t="inlineStr"/>
-      <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr"/>
-      <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="inlineStr"/>
-      <c r="I1391" t="inlineStr"/>
-      <c r="J1391" t="inlineStr"/>
+      <c r="B1391" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>8.78875</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1392" t="inlineStr"/>
+      <c r="C1392" t="inlineStr"/>
+      <c r="D1392" t="inlineStr"/>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
+      <c r="G1392" t="inlineStr"/>
+      <c r="H1392" t="inlineStr"/>
+      <c r="I1392" t="inlineStr"/>
+      <c r="J1392" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1392"/>
+  <dimension ref="A1:J1393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,7 +851,7 @@
         <v>13.37</v>
       </c>
       <c r="J15" t="n">
-        <v>13.37166666666667</v>
+        <v>13.37166666666666</v>
       </c>
     </row>
     <row r="16">
@@ -907,7 +907,7 @@
         <v>7.45</v>
       </c>
       <c r="J17" t="n">
-        <v>7.451666666666668</v>
+        <v>7.451666666666665</v>
       </c>
     </row>
     <row r="18">
@@ -991,7 +991,7 @@
         <v>3.65</v>
       </c>
       <c r="J20" t="n">
-        <v>3.651666666666666</v>
+        <v>3.651666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -1187,7 +1187,7 @@
         <v>11.35</v>
       </c>
       <c r="J27" t="n">
-        <v>11.35166666666666</v>
+        <v>11.35166666666667</v>
       </c>
     </row>
     <row r="28">
@@ -1299,7 +1299,7 @@
         <v>5.25</v>
       </c>
       <c r="J31" t="n">
-        <v>5.251666666666666</v>
+        <v>5.251666666666667</v>
       </c>
     </row>
     <row r="32">
@@ -1327,7 +1327,7 @@
         <v>3.53</v>
       </c>
       <c r="J32" t="n">
-        <v>3.531666666666667</v>
+        <v>3.531666666666666</v>
       </c>
     </row>
     <row r="33">
@@ -1355,7 +1355,7 @@
         <v>4.65</v>
       </c>
       <c r="J33" t="n">
-        <v>4.651666666666667</v>
+        <v>4.651666666666666</v>
       </c>
     </row>
     <row r="34">
@@ -1411,7 +1411,7 @@
         <v>6.85</v>
       </c>
       <c r="J35" t="n">
-        <v>6.850000000000001</v>
+        <v>6.849999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1467,7 +1467,7 @@
         <v>8.83</v>
       </c>
       <c r="J37" t="n">
-        <v>8.831666666666665</v>
+        <v>8.831666666666667</v>
       </c>
     </row>
     <row r="38">
@@ -1525,7 +1525,7 @@
         <v>9.65</v>
       </c>
       <c r="J39" t="n">
-        <v>9.652857142857144</v>
+        <v>9.652857142857142</v>
       </c>
     </row>
     <row r="40">
@@ -1585,7 +1585,7 @@
         <v>8.24</v>
       </c>
       <c r="J41" t="n">
-        <v>8.237142857142858</v>
+        <v>8.237142857142857</v>
       </c>
     </row>
     <row r="42">
@@ -1645,7 +1645,7 @@
         <v>3.87</v>
       </c>
       <c r="J43" t="n">
-        <v>3.87</v>
+        <v>3.870000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1801,7 +1801,7 @@
         <v>8.34</v>
       </c>
       <c r="J48" t="n">
-        <v>8.338749999999999</v>
+        <v>8.338750000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1961,7 +1961,7 @@
         <v>6.68</v>
       </c>
       <c r="J53" t="n">
-        <v>6.6825</v>
+        <v>6.682499999999999</v>
       </c>
     </row>
     <row r="54">
@@ -2025,7 +2025,7 @@
         <v>2.78</v>
       </c>
       <c r="J55" t="n">
-        <v>2.782500000000001</v>
+        <v>2.7825</v>
       </c>
     </row>
     <row r="56">
@@ -2057,7 +2057,7 @@
         <v>4.18</v>
       </c>
       <c r="J56" t="n">
-        <v>4.1825</v>
+        <v>4.182499999999999</v>
       </c>
     </row>
     <row r="57">
@@ -2121,7 +2121,7 @@
         <v>7.03</v>
       </c>
       <c r="J58" t="n">
-        <v>7.02625</v>
+        <v>7.026250000000001</v>
       </c>
     </row>
     <row r="59">
@@ -2217,7 +2217,7 @@
         <v>9.77</v>
       </c>
       <c r="J61" t="n">
-        <v>9.768749999999999</v>
+        <v>9.768750000000001</v>
       </c>
     </row>
     <row r="62">
@@ -2441,7 +2441,7 @@
         <v>2.98</v>
       </c>
       <c r="J68" t="n">
-        <v>2.982499999999999</v>
+        <v>2.9825</v>
       </c>
     </row>
     <row r="69">
@@ -2537,7 +2537,7 @@
         <v>6.61</v>
       </c>
       <c r="J71" t="n">
-        <v>6.61</v>
+        <v>6.609999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -2569,7 +2569,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="J72" t="n">
-        <v>8.053749999999999</v>
+        <v>8.053750000000001</v>
       </c>
     </row>
     <row r="73">
@@ -2697,7 +2697,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="J76" t="n">
-        <v>9.71125</v>
+        <v>9.711250000000001</v>
       </c>
     </row>
     <row r="77">
@@ -2729,7 +2729,7 @@
         <v>6.84</v>
       </c>
       <c r="J77" t="n">
-        <v>6.84</v>
+        <v>6.840000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -2889,7 +2889,7 @@
         <v>7.3</v>
       </c>
       <c r="J82" t="n">
-        <v>7.298749999999999</v>
+        <v>7.29875</v>
       </c>
     </row>
     <row r="83">
@@ -2921,7 +2921,7 @@
         <v>8.720000000000001</v>
       </c>
       <c r="J83" t="n">
-        <v>8.723750000000001</v>
+        <v>8.723749999999999</v>
       </c>
     </row>
     <row r="84">
@@ -3177,7 +3177,7 @@
         <v>6.19</v>
       </c>
       <c r="J91" t="n">
-        <v>6.191249999999999</v>
+        <v>6.19125</v>
       </c>
     </row>
     <row r="92">
@@ -3273,7 +3273,7 @@
         <v>5.82</v>
       </c>
       <c r="J94" t="n">
-        <v>5.82</v>
+        <v>5.819999999999999</v>
       </c>
     </row>
     <row r="95">
@@ -3529,7 +3529,7 @@
         <v>7.79</v>
       </c>
       <c r="J102" t="n">
-        <v>7.791250000000001</v>
+        <v>7.79125</v>
       </c>
     </row>
     <row r="103">
@@ -3561,7 +3561,7 @@
         <v>4.99</v>
       </c>
       <c r="J103" t="n">
-        <v>4.991250000000001</v>
+        <v>4.99125</v>
       </c>
     </row>
     <row r="104">
@@ -3689,7 +3689,7 @@
         <v>8.15</v>
       </c>
       <c r="J107" t="n">
-        <v>8.147499999999999</v>
+        <v>8.147500000000001</v>
       </c>
     </row>
     <row r="108">
@@ -3721,7 +3721,7 @@
         <v>9.76</v>
       </c>
       <c r="J108" t="n">
-        <v>9.762500000000001</v>
+        <v>9.762499999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4233,7 +4233,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="J124" t="n">
-        <v>9.54875</v>
+        <v>9.548750000000002</v>
       </c>
     </row>
     <row r="125">
@@ -4265,7 +4265,7 @@
         <v>7.08</v>
       </c>
       <c r="J125" t="n">
-        <v>7.077499999999999</v>
+        <v>7.077500000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4425,7 +4425,7 @@
         <v>4.35</v>
       </c>
       <c r="J130" t="n">
-        <v>4.348750000000001</v>
+        <v>4.34875</v>
       </c>
     </row>
     <row r="131">
@@ -4489,7 +4489,7 @@
         <v>7.22</v>
       </c>
       <c r="J132" t="n">
-        <v>7.220000000000001</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="133">
@@ -4841,7 +4841,7 @@
         <v>7.45</v>
       </c>
       <c r="J143" t="n">
-        <v>7.447500000000002</v>
+        <v>7.4475</v>
       </c>
     </row>
     <row r="144">
@@ -5097,7 +5097,7 @@
         <v>4.97</v>
       </c>
       <c r="J151" t="n">
-        <v>4.967499999999999</v>
+        <v>4.9675</v>
       </c>
     </row>
     <row r="152">
@@ -5161,7 +5161,7 @@
         <v>4.08</v>
       </c>
       <c r="J153" t="n">
-        <v>4.08125</v>
+        <v>4.081250000000001</v>
       </c>
     </row>
     <row r="154">
@@ -5193,7 +5193,7 @@
         <v>6.1</v>
       </c>
       <c r="J154" t="n">
-        <v>6.097499999999999</v>
+        <v>6.0975</v>
       </c>
     </row>
     <row r="155">
@@ -5225,7 +5225,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="J155" t="n">
-        <v>8.38125</v>
+        <v>8.381250000000001</v>
       </c>
     </row>
     <row r="156">
@@ -5417,7 +5417,7 @@
         <v>8.42</v>
       </c>
       <c r="J161" t="n">
-        <v>8.42375</v>
+        <v>8.423750000000002</v>
       </c>
     </row>
     <row r="162">
@@ -5449,7 +5449,7 @@
         <v>6.35</v>
       </c>
       <c r="J162" t="n">
-        <v>6.352500000000001</v>
+        <v>6.3525</v>
       </c>
     </row>
     <row r="163">
@@ -5481,7 +5481,7 @@
         <v>3.01</v>
       </c>
       <c r="J163" t="n">
-        <v>3.010000000000001</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="164">
@@ -5609,7 +5609,7 @@
         <v>8.619999999999999</v>
       </c>
       <c r="J167" t="n">
-        <v>8.6225</v>
+        <v>8.622499999999999</v>
       </c>
     </row>
     <row r="168">
@@ -5769,7 +5769,7 @@
         <v>9.34</v>
       </c>
       <c r="J172" t="n">
-        <v>9.338750000000003</v>
+        <v>9.338750000000001</v>
       </c>
     </row>
     <row r="173">
@@ -5801,7 +5801,7 @@
         <v>6.07</v>
       </c>
       <c r="J173" t="n">
-        <v>6.067500000000001</v>
+        <v>6.0675</v>
       </c>
     </row>
     <row r="174">
@@ -6569,7 +6569,7 @@
         <v>7.69</v>
       </c>
       <c r="J197" t="n">
-        <v>7.6925</v>
+        <v>7.692500000000001</v>
       </c>
     </row>
     <row r="198">
@@ -6633,7 +6633,7 @@
         <v>3.39</v>
       </c>
       <c r="J199" t="n">
-        <v>3.392500000000001</v>
+        <v>3.3925</v>
       </c>
     </row>
     <row r="200">
@@ -6761,7 +6761,7 @@
         <v>7.52</v>
       </c>
       <c r="J203" t="n">
-        <v>7.520000000000001</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="204">
@@ -6793,7 +6793,7 @@
         <v>7.91</v>
       </c>
       <c r="J204" t="n">
-        <v>7.907499999999999</v>
+        <v>7.9075</v>
       </c>
     </row>
     <row r="205">
@@ -6921,7 +6921,7 @@
         <v>9.34</v>
       </c>
       <c r="J208" t="n">
-        <v>9.342500000000001</v>
+        <v>9.342499999999999</v>
       </c>
     </row>
     <row r="209">
@@ -6953,7 +6953,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="J209" t="n">
-        <v>9.713750000000001</v>
+        <v>9.713749999999999</v>
       </c>
     </row>
     <row r="210">
@@ -6985,7 +6985,7 @@
         <v>6.31</v>
       </c>
       <c r="J210" t="n">
-        <v>6.313750000000002</v>
+        <v>6.313750000000001</v>
       </c>
     </row>
     <row r="211">
@@ -7017,7 +7017,7 @@
         <v>3.19</v>
       </c>
       <c r="J211" t="n">
-        <v>3.186250000000001</v>
+        <v>3.18625</v>
       </c>
     </row>
     <row r="212">
@@ -7177,7 +7177,7 @@
         <v>7.86</v>
       </c>
       <c r="J216" t="n">
-        <v>7.857499999999999</v>
+        <v>7.8575</v>
       </c>
     </row>
     <row r="217">
@@ -7209,7 +7209,7 @@
         <v>9.94</v>
       </c>
       <c r="J217" t="n">
-        <v>9.942499999999999</v>
+        <v>9.942500000000001</v>
       </c>
     </row>
     <row r="218">
@@ -7561,7 +7561,7 @@
         <v>7.97</v>
       </c>
       <c r="J228" t="n">
-        <v>7.97125</v>
+        <v>7.971250000000001</v>
       </c>
     </row>
     <row r="229">
@@ -7817,7 +7817,7 @@
         <v>4.58</v>
       </c>
       <c r="J236" t="n">
-        <v>4.579999999999999</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="237">
@@ -7913,7 +7913,7 @@
         <v>7.94</v>
       </c>
       <c r="J239" t="n">
-        <v>7.936249999999999</v>
+        <v>7.93625</v>
       </c>
     </row>
     <row r="240">
@@ -8489,7 +8489,7 @@
         <v>8.27</v>
       </c>
       <c r="J257" t="n">
-        <v>8.268749999999999</v>
+        <v>8.268750000000001</v>
       </c>
     </row>
     <row r="258">
@@ -8745,7 +8745,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="J265" t="n">
-        <v>9.782500000000001</v>
+        <v>9.782499999999999</v>
       </c>
     </row>
     <row r="266">
@@ -8809,7 +8809,7 @@
         <v>9.77</v>
       </c>
       <c r="J267" t="n">
-        <v>9.768749999999999</v>
+        <v>9.768750000000001</v>
       </c>
     </row>
     <row r="268">
@@ -8905,7 +8905,7 @@
         <v>5.24</v>
       </c>
       <c r="J270" t="n">
-        <v>5.239999999999999</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="271">
@@ -9257,7 +9257,7 @@
         <v>9.09</v>
       </c>
       <c r="J281" t="n">
-        <v>9.092499999999999</v>
+        <v>9.092500000000001</v>
       </c>
     </row>
     <row r="282">
@@ -9481,7 +9481,7 @@
         <v>8.81</v>
       </c>
       <c r="J288" t="n">
-        <v>8.807499999999999</v>
+        <v>8.807500000000001</v>
       </c>
     </row>
     <row r="289">
@@ -9865,7 +9865,7 @@
         <v>7.98</v>
       </c>
       <c r="J300" t="n">
-        <v>7.978750000000002</v>
+        <v>7.97875</v>
       </c>
     </row>
     <row r="301">
@@ -10057,7 +10057,7 @@
         <v>5.31</v>
       </c>
       <c r="J306" t="n">
-        <v>5.3075</v>
+        <v>5.307499999999999</v>
       </c>
     </row>
     <row r="307">
@@ -10185,7 +10185,7 @@
         <v>5.91</v>
       </c>
       <c r="J310" t="n">
-        <v>5.907499999999999</v>
+        <v>5.9075</v>
       </c>
     </row>
     <row r="311">
@@ -10217,7 +10217,7 @@
         <v>7.36</v>
       </c>
       <c r="J311" t="n">
-        <v>7.3625</v>
+        <v>7.362500000000001</v>
       </c>
     </row>
     <row r="312">
@@ -10249,7 +10249,7 @@
         <v>9.98</v>
       </c>
       <c r="J312" t="n">
-        <v>9.978750000000002</v>
+        <v>9.97875</v>
       </c>
     </row>
     <row r="313">
@@ -10409,7 +10409,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="J317" t="n">
-        <v>9.77875</v>
+        <v>9.778749999999999</v>
       </c>
     </row>
     <row r="318">
@@ -10505,7 +10505,7 @@
         <v>3.05</v>
       </c>
       <c r="J320" t="n">
-        <v>3.050000000000001</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="321">
@@ -10601,7 +10601,7 @@
         <v>7.99</v>
       </c>
       <c r="J323" t="n">
-        <v>7.991250000000001</v>
+        <v>7.99125</v>
       </c>
     </row>
     <row r="324">
@@ -10793,7 +10793,7 @@
         <v>9.44</v>
       </c>
       <c r="J329" t="n">
-        <v>9.436249999999999</v>
+        <v>9.436250000000001</v>
       </c>
     </row>
     <row r="330">
@@ -10953,7 +10953,7 @@
         <v>5.09</v>
       </c>
       <c r="J334" t="n">
-        <v>5.092500000000001</v>
+        <v>5.0925</v>
       </c>
     </row>
     <row r="335">
@@ -11049,7 +11049,7 @@
         <v>9.949999999999999</v>
       </c>
       <c r="J337" t="n">
-        <v>9.950000000000001</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="338">
@@ -11241,7 +11241,7 @@
         <v>2.96</v>
       </c>
       <c r="J343" t="n">
-        <v>2.963750000000001</v>
+        <v>2.96375</v>
       </c>
     </row>
     <row r="344">
@@ -11337,7 +11337,7 @@
         <v>5.85</v>
       </c>
       <c r="J346" t="n">
-        <v>5.850000000000001</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="347">
@@ -11721,7 +11721,7 @@
         <v>5.85</v>
       </c>
       <c r="J358" t="n">
-        <v>5.850000000000001</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="359">
@@ -11817,7 +11817,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="J361" t="n">
-        <v>9.549999999999999</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="362">
@@ -11945,7 +11945,7 @@
         <v>8.48</v>
       </c>
       <c r="J365" t="n">
-        <v>8.47875</v>
+        <v>8.478750000000002</v>
       </c>
     </row>
     <row r="366">
@@ -12009,7 +12009,7 @@
         <v>5.26</v>
       </c>
       <c r="J367" t="n">
-        <v>5.263749999999999</v>
+        <v>5.26375</v>
       </c>
     </row>
     <row r="368">
@@ -12905,7 +12905,7 @@
         <v>6.56</v>
       </c>
       <c r="J395" t="n">
-        <v>6.563750000000001</v>
+        <v>6.56375</v>
       </c>
     </row>
     <row r="396">
@@ -13353,7 +13353,7 @@
         <v>9.43</v>
       </c>
       <c r="J409" t="n">
-        <v>9.431249999999999</v>
+        <v>9.43125</v>
       </c>
     </row>
     <row r="410">
@@ -13513,7 +13513,7 @@
         <v>4.47</v>
       </c>
       <c r="J414" t="n">
-        <v>4.473749999999999</v>
+        <v>4.47375</v>
       </c>
     </row>
     <row r="415">
@@ -13673,7 +13673,7 @@
         <v>7.03</v>
       </c>
       <c r="J419" t="n">
-        <v>7.031250000000001</v>
+        <v>7.03125</v>
       </c>
     </row>
     <row r="420">
@@ -13897,7 +13897,7 @@
         <v>5.31</v>
       </c>
       <c r="J426" t="n">
-        <v>5.313750000000001</v>
+        <v>5.31375</v>
       </c>
     </row>
     <row r="427">
@@ -13993,7 +13993,7 @@
         <v>3.79</v>
       </c>
       <c r="J429" t="n">
-        <v>3.786249999999999</v>
+        <v>3.78625</v>
       </c>
     </row>
     <row r="430">
@@ -14121,7 +14121,7 @@
         <v>9.24</v>
       </c>
       <c r="J433" t="n">
-        <v>9.242499999999998</v>
+        <v>9.2425</v>
       </c>
     </row>
     <row r="434">
@@ -14217,7 +14217,7 @@
         <v>9.34</v>
       </c>
       <c r="J436" t="n">
-        <v>9.34125</v>
+        <v>9.341249999999999</v>
       </c>
     </row>
     <row r="437">
@@ -14281,7 +14281,7 @@
         <v>5.14</v>
       </c>
       <c r="J438" t="n">
-        <v>5.14125</v>
+        <v>5.141249999999999</v>
       </c>
     </row>
     <row r="439">
@@ -14441,7 +14441,7 @@
         <v>5.51</v>
       </c>
       <c r="J443" t="n">
-        <v>5.5125</v>
+        <v>5.512499999999999</v>
       </c>
     </row>
     <row r="444">
@@ -14633,7 +14633,7 @@
         <v>8.5</v>
       </c>
       <c r="J449" t="n">
-        <v>8.498750000000001</v>
+        <v>8.498749999999999</v>
       </c>
     </row>
     <row r="450">
@@ -14665,7 +14665,7 @@
         <v>6.9</v>
       </c>
       <c r="J450" t="n">
-        <v>6.898750000000001</v>
+        <v>6.89875</v>
       </c>
     </row>
     <row r="451">
@@ -14729,7 +14729,7 @@
         <v>4.23</v>
       </c>
       <c r="J452" t="n">
-        <v>4.227499999999999</v>
+        <v>4.2275</v>
       </c>
     </row>
     <row r="453">
@@ -14825,7 +14825,7 @@
         <v>6.34</v>
       </c>
       <c r="J455" t="n">
-        <v>6.340000000000002</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="456">
@@ -14889,7 +14889,7 @@
         <v>9.07</v>
       </c>
       <c r="J457" t="n">
-        <v>9.069999999999999</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="458">
@@ -15081,7 +15081,7 @@
         <v>4.18</v>
       </c>
       <c r="J463" t="n">
-        <v>4.182499999999999</v>
+        <v>4.1825</v>
       </c>
     </row>
     <row r="464">
@@ -15177,7 +15177,7 @@
         <v>5.54</v>
       </c>
       <c r="J466" t="n">
-        <v>5.54</v>
+        <v>5.539999999999999</v>
       </c>
     </row>
     <row r="467">
@@ -15433,7 +15433,7 @@
         <v>6.54</v>
       </c>
       <c r="J474" t="n">
-        <v>6.539999999999999</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="475">
@@ -15977,7 +15977,7 @@
         <v>8.48</v>
       </c>
       <c r="J491" t="n">
-        <v>8.481250000000001</v>
+        <v>8.481249999999999</v>
       </c>
     </row>
     <row r="492">
@@ -16041,7 +16041,7 @@
         <v>9.85</v>
       </c>
       <c r="J493" t="n">
-        <v>9.85375</v>
+        <v>9.853750000000002</v>
       </c>
     </row>
     <row r="494">
@@ -16201,7 +16201,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="J498" t="n">
-        <v>8.053750000000001</v>
+        <v>8.053749999999999</v>
       </c>
     </row>
     <row r="499">
@@ -16329,7 +16329,7 @@
         <v>5.81</v>
       </c>
       <c r="J502" t="n">
-        <v>5.81125</v>
+        <v>5.811249999999999</v>
       </c>
     </row>
     <row r="503">
@@ -16361,7 +16361,7 @@
         <v>7.77</v>
       </c>
       <c r="J503" t="n">
-        <v>7.7675</v>
+        <v>7.767499999999999</v>
       </c>
     </row>
     <row r="504">
@@ -16713,7 +16713,7 @@
         <v>5.53</v>
       </c>
       <c r="J514" t="n">
-        <v>5.533750000000001</v>
+        <v>5.53375</v>
       </c>
     </row>
     <row r="515">
@@ -16905,7 +16905,7 @@
         <v>9.98</v>
       </c>
       <c r="J520" t="n">
-        <v>9.977500000000001</v>
+        <v>9.977499999999999</v>
       </c>
     </row>
     <row r="521">
@@ -16937,7 +16937,7 @@
         <v>8.619999999999999</v>
       </c>
       <c r="J521" t="n">
-        <v>8.619999999999999</v>
+        <v>8.620000000000001</v>
       </c>
     </row>
     <row r="522">
@@ -16969,7 +16969,7 @@
         <v>6.13</v>
       </c>
       <c r="J522" t="n">
-        <v>6.133750000000001</v>
+        <v>6.133749999999999</v>
       </c>
     </row>
     <row r="523">
@@ -17161,7 +17161,7 @@
         <v>9.51</v>
       </c>
       <c r="J528" t="n">
-        <v>9.506250000000001</v>
+        <v>9.50625</v>
       </c>
     </row>
     <row r="529">
@@ -17321,7 +17321,7 @@
         <v>8.220000000000001</v>
       </c>
       <c r="J533" t="n">
-        <v>8.219999999999999</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="534">
@@ -17385,7 +17385,7 @@
         <v>4.15</v>
       </c>
       <c r="J535" t="n">
-        <v>4.14875</v>
+        <v>4.148750000000001</v>
       </c>
     </row>
     <row r="536">
@@ -17513,7 +17513,7 @@
         <v>7.11</v>
       </c>
       <c r="J539" t="n">
-        <v>7.106250000000001</v>
+        <v>7.106249999999999</v>
       </c>
     </row>
     <row r="540">
@@ -17705,7 +17705,7 @@
         <v>7.51</v>
       </c>
       <c r="J545" t="n">
-        <v>7.506250000000001</v>
+        <v>7.50625</v>
       </c>
     </row>
     <row r="546">
@@ -17833,7 +17833,7 @@
         <v>3.81</v>
       </c>
       <c r="J549" t="n">
-        <v>3.80625</v>
+        <v>3.806249999999999</v>
       </c>
     </row>
     <row r="550">
@@ -17865,7 +17865,7 @@
         <v>4.82</v>
       </c>
       <c r="J550" t="n">
-        <v>4.82125</v>
+        <v>4.821250000000001</v>
       </c>
     </row>
     <row r="551">
@@ -17897,7 +17897,7 @@
         <v>6.25</v>
       </c>
       <c r="J551" t="n">
-        <v>6.248749999999999</v>
+        <v>6.24875</v>
       </c>
     </row>
     <row r="552">
@@ -18121,7 +18121,7 @@
         <v>7.22</v>
       </c>
       <c r="J558" t="n">
-        <v>7.220000000000001</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="559">
@@ -18249,7 +18249,7 @@
         <v>6.05</v>
       </c>
       <c r="J562" t="n">
-        <v>6.048749999999999</v>
+        <v>6.04875</v>
       </c>
     </row>
     <row r="563">
@@ -18537,7 +18537,7 @@
         <v>4.99</v>
       </c>
       <c r="J571" t="n">
-        <v>4.991250000000001</v>
+        <v>4.99125</v>
       </c>
     </row>
     <row r="572">
@@ -18633,7 +18633,7 @@
         <v>5.75</v>
       </c>
       <c r="J574" t="n">
-        <v>5.748749999999999</v>
+        <v>5.74875</v>
       </c>
     </row>
     <row r="575">
@@ -18665,7 +18665,7 @@
         <v>8.25</v>
       </c>
       <c r="J575" t="n">
-        <v>8.247499999999999</v>
+        <v>8.2475</v>
       </c>
     </row>
     <row r="576">
@@ -19049,7 +19049,7 @@
         <v>6.71</v>
       </c>
       <c r="J587" t="n">
-        <v>6.706250000000001</v>
+        <v>6.70625</v>
       </c>
     </row>
     <row r="588">
@@ -19113,7 +19113,7 @@
         <v>9.66</v>
       </c>
       <c r="J589" t="n">
-        <v>9.6625</v>
+        <v>9.662500000000001</v>
       </c>
     </row>
     <row r="590">
@@ -19305,7 +19305,7 @@
         <v>3.35</v>
       </c>
       <c r="J595" t="n">
-        <v>3.34875</v>
+        <v>3.348749999999999</v>
       </c>
     </row>
     <row r="596">
@@ -19369,7 +19369,7 @@
         <v>4.26</v>
       </c>
       <c r="J597" t="n">
-        <v>4.2625</v>
+        <v>4.262499999999999</v>
       </c>
     </row>
     <row r="598">
@@ -19401,7 +19401,7 @@
         <v>4.54</v>
       </c>
       <c r="J598" t="n">
-        <v>4.536250000000001</v>
+        <v>4.53625</v>
       </c>
     </row>
     <row r="599">
@@ -20009,7 +20009,7 @@
         <v>8.19</v>
       </c>
       <c r="J617" t="n">
-        <v>8.191249999999998</v>
+        <v>8.19125</v>
       </c>
     </row>
     <row r="618">
@@ -20169,7 +20169,7 @@
         <v>6.31</v>
       </c>
       <c r="J622" t="n">
-        <v>6.306250000000001</v>
+        <v>6.30625</v>
       </c>
     </row>
     <row r="623">
@@ -20201,7 +20201,7 @@
         <v>8.51</v>
       </c>
       <c r="J623" t="n">
-        <v>8.506250000000001</v>
+        <v>8.50625</v>
       </c>
     </row>
     <row r="624">
@@ -20553,7 +20553,7 @@
         <v>5.64</v>
       </c>
       <c r="J634" t="n">
-        <v>5.643750000000001</v>
+        <v>5.64375</v>
       </c>
     </row>
     <row r="635">
@@ -20617,7 +20617,7 @@
         <v>9.42</v>
       </c>
       <c r="J636" t="n">
-        <v>9.41625</v>
+        <v>9.416249999999998</v>
       </c>
     </row>
     <row r="637">
@@ -20873,7 +20873,7 @@
         <v>4.36</v>
       </c>
       <c r="J644" t="n">
-        <v>4.35875</v>
+        <v>4.358750000000001</v>
       </c>
     </row>
     <row r="645">
@@ -21001,7 +21001,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J648" t="n">
-        <v>9.20125</v>
+        <v>9.201249999999998</v>
       </c>
     </row>
     <row r="649">
@@ -21193,7 +21193,7 @@
         <v>5.8</v>
       </c>
       <c r="J654" t="n">
-        <v>5.801249999999999</v>
+        <v>5.80125</v>
       </c>
     </row>
     <row r="655">
@@ -21353,7 +21353,7 @@
         <v>7.79</v>
       </c>
       <c r="J659" t="n">
-        <v>7.787500000000001</v>
+        <v>7.7875</v>
       </c>
     </row>
     <row r="660">
@@ -21705,7 +21705,7 @@
         <v>5.21</v>
       </c>
       <c r="J670" t="n">
-        <v>5.20625</v>
+        <v>5.206250000000001</v>
       </c>
     </row>
     <row r="671">
@@ -21769,7 +21769,7 @@
         <v>8.65</v>
       </c>
       <c r="J672" t="n">
-        <v>8.648750000000001</v>
+        <v>8.64875</v>
       </c>
     </row>
     <row r="673">
@@ -21929,7 +21929,7 @@
         <v>8.35</v>
       </c>
       <c r="J677" t="n">
-        <v>8.348750000000001</v>
+        <v>8.348749999999999</v>
       </c>
     </row>
     <row r="678">
@@ -22089,7 +22089,7 @@
         <v>5.58</v>
       </c>
       <c r="J682" t="n">
-        <v>5.577499999999999</v>
+        <v>5.5775</v>
       </c>
     </row>
     <row r="683">
@@ -22473,7 +22473,7 @@
         <v>5.82</v>
       </c>
       <c r="J694" t="n">
-        <v>5.82125</v>
+        <v>5.821250000000001</v>
       </c>
     </row>
     <row r="695">
@@ -22729,7 +22729,7 @@
         <v>6.39</v>
       </c>
       <c r="J702" t="n">
-        <v>6.39125</v>
+        <v>6.391249999999999</v>
       </c>
     </row>
     <row r="703">
@@ -22889,7 +22889,7 @@
         <v>7.72</v>
       </c>
       <c r="J707" t="n">
-        <v>7.718749999999999</v>
+        <v>7.71875</v>
       </c>
     </row>
     <row r="708">
@@ -22921,7 +22921,7 @@
         <v>8.65</v>
       </c>
       <c r="J708" t="n">
-        <v>8.64625</v>
+        <v>8.646249999999998</v>
       </c>
     </row>
     <row r="709">
@@ -23209,7 +23209,7 @@
         <v>4.69</v>
       </c>
       <c r="J717" t="n">
-        <v>4.688749999999999</v>
+        <v>4.68875</v>
       </c>
     </row>
     <row r="718">
@@ -23273,7 +23273,7 @@
         <v>6.82</v>
       </c>
       <c r="J719" t="n">
-        <v>6.8175</v>
+        <v>6.817500000000001</v>
       </c>
     </row>
     <row r="720">
@@ -23593,7 +23593,7 @@
         <v>4.33</v>
       </c>
       <c r="J729" t="n">
-        <v>4.33125</v>
+        <v>4.331250000000001</v>
       </c>
     </row>
     <row r="730">
@@ -23849,7 +23849,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="J737" t="n">
-        <v>9.302499999999998</v>
+        <v>9.3025</v>
       </c>
     </row>
     <row r="738">
@@ -23977,7 +23977,7 @@
         <v>5.06</v>
       </c>
       <c r="J741" t="n">
-        <v>5.061250000000001</v>
+        <v>5.061249999999999</v>
       </c>
     </row>
     <row r="742">
@@ -24009,7 +24009,7 @@
         <v>6.47</v>
       </c>
       <c r="J742" t="n">
-        <v>6.47375</v>
+        <v>6.473750000000001</v>
       </c>
     </row>
     <row r="743">
@@ -24265,7 +24265,7 @@
         <v>7.82</v>
       </c>
       <c r="J750" t="n">
-        <v>7.8175</v>
+        <v>7.817500000000001</v>
       </c>
     </row>
     <row r="751">
@@ -24393,7 +24393,7 @@
         <v>5.99</v>
       </c>
       <c r="J754" t="n">
-        <v>5.989999999999999</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="755">
@@ -24649,7 +24649,7 @@
         <v>5.72</v>
       </c>
       <c r="J762" t="n">
-        <v>5.717499999999999</v>
+        <v>5.7175</v>
       </c>
     </row>
     <row r="763">
@@ -25417,7 +25417,7 @@
         <v>6.36</v>
       </c>
       <c r="J786" t="n">
-        <v>6.36</v>
+        <v>6.359999999999999</v>
       </c>
     </row>
     <row r="787">
@@ -25577,7 +25577,7 @@
         <v>7.77</v>
       </c>
       <c r="J791" t="n">
-        <v>7.772500000000001</v>
+        <v>7.7725</v>
       </c>
     </row>
     <row r="792">
@@ -25769,7 +25769,7 @@
         <v>9.52</v>
       </c>
       <c r="J797" t="n">
-        <v>9.517499999999998</v>
+        <v>9.5175</v>
       </c>
     </row>
     <row r="798">
@@ -25897,7 +25897,7 @@
         <v>5.13</v>
       </c>
       <c r="J801" t="n">
-        <v>5.131250000000001</v>
+        <v>5.13125</v>
       </c>
     </row>
     <row r="802">
@@ -25929,7 +25929,7 @@
         <v>5.73</v>
       </c>
       <c r="J802" t="n">
-        <v>5.731250000000001</v>
+        <v>5.73125</v>
       </c>
     </row>
     <row r="803">
@@ -26089,7 +26089,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="J807" t="n">
-        <v>9.708750000000002</v>
+        <v>9.708749999999998</v>
       </c>
     </row>
     <row r="808">
@@ -26345,7 +26345,7 @@
         <v>6.78</v>
       </c>
       <c r="J815" t="n">
-        <v>6.777499999999999</v>
+        <v>6.7775</v>
       </c>
     </row>
     <row r="816">
@@ -26377,7 +26377,7 @@
         <v>7.93</v>
       </c>
       <c r="J816" t="n">
-        <v>7.933749999999998</v>
+        <v>7.933749999999999</v>
       </c>
     </row>
     <row r="817">
@@ -26665,7 +26665,7 @@
         <v>4.55</v>
       </c>
       <c r="J825" t="n">
-        <v>4.548749999999999</v>
+        <v>4.54875</v>
       </c>
     </row>
     <row r="826">
@@ -26697,7 +26697,7 @@
         <v>4.31</v>
       </c>
       <c r="J826" t="n">
-        <v>4.307500000000001</v>
+        <v>4.3075</v>
       </c>
     </row>
     <row r="827">
@@ -26729,7 +26729,7 @@
         <v>7.13</v>
       </c>
       <c r="J827" t="n">
-        <v>7.133750000000001</v>
+        <v>7.13375</v>
       </c>
     </row>
     <row r="828">
@@ -26953,7 +26953,7 @@
         <v>6.76</v>
       </c>
       <c r="J834" t="n">
-        <v>6.7625</v>
+        <v>6.762499999999999</v>
       </c>
     </row>
     <row r="835">
@@ -27049,7 +27049,7 @@
         <v>4.61</v>
       </c>
       <c r="J837" t="n">
-        <v>4.606249999999999</v>
+        <v>4.60625</v>
       </c>
     </row>
     <row r="838">
@@ -27337,7 +27337,7 @@
         <v>6.13</v>
       </c>
       <c r="J846" t="n">
-        <v>6.133750000000001</v>
+        <v>6.13375</v>
       </c>
     </row>
     <row r="847">
@@ -27369,7 +27369,7 @@
         <v>4.69</v>
       </c>
       <c r="J847" t="n">
-        <v>4.691249999999999</v>
+        <v>4.69125</v>
       </c>
     </row>
     <row r="848">
@@ -27433,7 +27433,7 @@
         <v>4.15</v>
       </c>
       <c r="J849" t="n">
-        <v>4.148750000000001</v>
+        <v>4.14875</v>
       </c>
     </row>
     <row r="850">
@@ -27753,7 +27753,7 @@
         <v>4.09</v>
       </c>
       <c r="J859" t="n">
-        <v>4.091249999999999</v>
+        <v>4.09125</v>
       </c>
     </row>
     <row r="860">
@@ -27817,7 +27817,7 @@
         <v>4.19</v>
       </c>
       <c r="J861" t="n">
-        <v>4.191249999999999</v>
+        <v>4.19125</v>
       </c>
     </row>
     <row r="862">
@@ -27881,7 +27881,7 @@
         <v>8.65</v>
       </c>
       <c r="J863" t="n">
-        <v>8.648750000000001</v>
+        <v>8.64875</v>
       </c>
     </row>
     <row r="864">
@@ -28105,7 +28105,7 @@
         <v>5.76</v>
       </c>
       <c r="J870" t="n">
-        <v>5.7625</v>
+        <v>5.762499999999999</v>
       </c>
     </row>
     <row r="871">
@@ -28137,7 +28137,7 @@
         <v>5.72</v>
       </c>
       <c r="J871" t="n">
-        <v>5.719999999999999</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="872">
@@ -28265,7 +28265,7 @@
         <v>7.93</v>
       </c>
       <c r="J875" t="n">
-        <v>7.933750000000001</v>
+        <v>7.93375</v>
       </c>
     </row>
     <row r="876">
@@ -28457,7 +28457,7 @@
         <v>7.55</v>
       </c>
       <c r="J881" t="n">
-        <v>7.548749999999999</v>
+        <v>7.54875</v>
       </c>
     </row>
     <row r="882">
@@ -28489,7 +28489,7 @@
         <v>6.75</v>
       </c>
       <c r="J882" t="n">
-        <v>6.748749999999999</v>
+        <v>6.748750000000001</v>
       </c>
     </row>
     <row r="883">
@@ -28713,7 +28713,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="J889" t="n">
-        <v>9.719999999999999</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="890">
@@ -29001,7 +29001,7 @@
         <v>6.59</v>
       </c>
       <c r="J898" t="n">
-        <v>6.592499999999999</v>
+        <v>6.5925</v>
       </c>
     </row>
     <row r="899">
@@ -29225,7 +29225,7 @@
         <v>8.720000000000001</v>
       </c>
       <c r="J905" t="n">
-        <v>8.720000000000001</v>
+        <v>8.719999999999999</v>
       </c>
     </row>
     <row r="906">
@@ -29353,7 +29353,7 @@
         <v>6.06</v>
       </c>
       <c r="J909" t="n">
-        <v>6.063750000000001</v>
+        <v>6.06375</v>
       </c>
     </row>
     <row r="910">
@@ -29417,7 +29417,7 @@
         <v>7.43</v>
       </c>
       <c r="J911" t="n">
-        <v>7.43375</v>
+        <v>7.433750000000001</v>
       </c>
     </row>
     <row r="912">
@@ -29769,7 +29769,7 @@
         <v>6.75</v>
       </c>
       <c r="J922" t="n">
-        <v>6.749999999999999</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="923">
@@ -29801,7 +29801,7 @@
         <v>6.92</v>
       </c>
       <c r="J923" t="n">
-        <v>6.920000000000001</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="924">
@@ -30025,7 +30025,7 @@
         <v>6.29</v>
       </c>
       <c r="J930" t="n">
-        <v>6.291250000000001</v>
+        <v>6.29125</v>
       </c>
     </row>
     <row r="931">
@@ -30217,7 +30217,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="J936" t="n">
-        <v>9.606250000000001</v>
+        <v>9.606249999999999</v>
       </c>
     </row>
     <row r="937">
@@ -30377,7 +30377,7 @@
         <v>8.779999999999999</v>
       </c>
       <c r="J941" t="n">
-        <v>8.777499999999998</v>
+        <v>8.7775</v>
       </c>
     </row>
     <row r="942">
@@ -30409,7 +30409,7 @@
         <v>7.39</v>
       </c>
       <c r="J942" t="n">
-        <v>7.391250000000001</v>
+        <v>7.391249999999999</v>
       </c>
     </row>
     <row r="943">
@@ -30473,7 +30473,7 @@
         <v>3.98</v>
       </c>
       <c r="J944" t="n">
-        <v>3.98375</v>
+        <v>3.983750000000001</v>
       </c>
     </row>
     <row r="945">
@@ -30537,7 +30537,7 @@
         <v>6.64</v>
       </c>
       <c r="J946" t="n">
-        <v>6.642500000000001</v>
+        <v>6.6425</v>
       </c>
     </row>
     <row r="947">
@@ -30601,7 +30601,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="J948" t="n">
-        <v>9.956250000000001</v>
+        <v>9.956249999999999</v>
       </c>
     </row>
     <row r="949">
@@ -30793,7 +30793,7 @@
         <v>5.2</v>
       </c>
       <c r="J954" t="n">
-        <v>5.198750000000001</v>
+        <v>5.19875</v>
       </c>
     </row>
     <row r="955">
@@ -30857,7 +30857,7 @@
         <v>4.76</v>
       </c>
       <c r="J956" t="n">
-        <v>4.756250000000001</v>
+        <v>4.75625</v>
       </c>
     </row>
     <row r="957">
@@ -30889,7 +30889,7 @@
         <v>5.08</v>
       </c>
       <c r="J957" t="n">
-        <v>5.083749999999999</v>
+        <v>5.08375</v>
       </c>
     </row>
     <row r="958">
@@ -30953,7 +30953,7 @@
         <v>9.039999999999999</v>
       </c>
       <c r="J959" t="n">
-        <v>9.04125</v>
+        <v>9.041250000000002</v>
       </c>
     </row>
     <row r="960">
@@ -31273,7 +31273,7 @@
         <v>5.38</v>
       </c>
       <c r="J969" t="n">
-        <v>5.38375</v>
+        <v>5.383749999999999</v>
       </c>
     </row>
     <row r="970">
@@ -31529,7 +31529,7 @@
         <v>9.5</v>
       </c>
       <c r="J977" t="n">
-        <v>9.498750000000001</v>
+        <v>9.498749999999999</v>
       </c>
     </row>
     <row r="978">
@@ -31657,7 +31657,7 @@
         <v>5.21</v>
       </c>
       <c r="J981" t="n">
-        <v>5.212499999999999</v>
+        <v>5.2125</v>
       </c>
     </row>
     <row r="982">
@@ -31753,7 +31753,7 @@
         <v>9.76</v>
       </c>
       <c r="J984" t="n">
-        <v>9.756250000000001</v>
+        <v>9.75625</v>
       </c>
     </row>
     <row r="985">
@@ -32073,7 +32073,7 @@
         <v>7.16</v>
       </c>
       <c r="J994" t="n">
-        <v>7.161249999999999</v>
+        <v>7.161250000000001</v>
       </c>
     </row>
     <row r="995">
@@ -32105,7 +32105,7 @@
         <v>7.62</v>
       </c>
       <c r="J995" t="n">
-        <v>7.617500000000001</v>
+        <v>7.6175</v>
       </c>
     </row>
     <row r="996">
@@ -32297,7 +32297,7 @@
         <v>6.65</v>
       </c>
       <c r="J1001" t="n">
-        <v>6.646249999999999</v>
+        <v>6.64625</v>
       </c>
     </row>
     <row r="1002">
@@ -32329,7 +32329,7 @@
         <v>4.76</v>
       </c>
       <c r="J1002" t="n">
-        <v>4.759999999999999</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="1003">
@@ -32425,7 +32425,7 @@
         <v>4.09</v>
       </c>
       <c r="J1005" t="n">
-        <v>4.088749999999999</v>
+        <v>4.08875</v>
       </c>
     </row>
     <row r="1006">
@@ -32457,7 +32457,7 @@
         <v>5.03</v>
       </c>
       <c r="J1006" t="n">
-        <v>5.031250000000001</v>
+        <v>5.03125</v>
       </c>
     </row>
     <row r="1007">
@@ -32681,7 +32681,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="J1013" t="n">
-        <v>8.046249999999999</v>
+        <v>8.046250000000001</v>
       </c>
     </row>
     <row r="1014">
@@ -32745,7 +32745,7 @@
         <v>5.79</v>
       </c>
       <c r="J1015" t="n">
-        <v>5.788749999999999</v>
+        <v>5.78875</v>
       </c>
     </row>
     <row r="1016">
@@ -32841,7 +32841,7 @@
         <v>5.32</v>
       </c>
       <c r="J1018" t="n">
-        <v>5.317500000000001</v>
+        <v>5.3175</v>
       </c>
     </row>
     <row r="1019">
@@ -32905,7 +32905,7 @@
         <v>8.09</v>
       </c>
       <c r="J1020" t="n">
-        <v>8.088749999999999</v>
+        <v>8.088750000000001</v>
       </c>
     </row>
     <row r="1021">
@@ -33065,7 +33065,7 @@
         <v>8.66</v>
       </c>
       <c r="J1025" t="n">
-        <v>8.659999999999998</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="1026">
@@ -33097,7 +33097,7 @@
         <v>6.72</v>
       </c>
       <c r="J1026" t="n">
-        <v>6.7175</v>
+        <v>6.717499999999999</v>
       </c>
     </row>
     <row r="1027">
@@ -33641,7 +33641,7 @@
         <v>7.96</v>
       </c>
       <c r="J1043" t="n">
-        <v>7.96</v>
+        <v>7.960000000000001</v>
       </c>
     </row>
     <row r="1044">
@@ -34025,7 +34025,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="J1055" t="n">
-        <v>8.446250000000001</v>
+        <v>8.446249999999999</v>
       </c>
     </row>
     <row r="1056">
@@ -34217,7 +34217,7 @@
         <v>8.07</v>
       </c>
       <c r="J1061" t="n">
-        <v>8.067499999999999</v>
+        <v>8.067500000000001</v>
       </c>
     </row>
     <row r="1062">
@@ -34249,7 +34249,7 @@
         <v>7.47</v>
       </c>
       <c r="J1062" t="n">
-        <v>7.467499999999999</v>
+        <v>7.467500000000001</v>
       </c>
     </row>
     <row r="1063">
@@ -34697,7 +34697,7 @@
         <v>5.61</v>
       </c>
       <c r="J1076" t="n">
-        <v>5.611250000000001</v>
+        <v>5.61125</v>
       </c>
     </row>
     <row r="1077">
@@ -34825,7 +34825,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="J1080" t="n">
-        <v>9.532500000000001</v>
+        <v>9.532499999999999</v>
       </c>
     </row>
     <row r="1081">
@@ -35593,7 +35593,7 @@
         <v>7.64</v>
       </c>
       <c r="J1104" t="n">
-        <v>7.642499999999999</v>
+        <v>7.6425</v>
       </c>
     </row>
     <row r="1105">
@@ -36201,7 +36201,7 @@
         <v>6.07</v>
       </c>
       <c r="J1123" t="n">
-        <v>6.071250000000001</v>
+        <v>6.07125</v>
       </c>
     </row>
     <row r="1124">
@@ -36329,7 +36329,7 @@
         <v>6.4</v>
       </c>
       <c r="J1127" t="n">
-        <v>6.399999999999999</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="1128">
@@ -36649,7 +36649,7 @@
         <v>4.77</v>
       </c>
       <c r="J1137" t="n">
-        <v>4.772500000000001</v>
+        <v>4.7725</v>
       </c>
     </row>
     <row r="1138">
@@ -36713,7 +36713,7 @@
         <v>7.24</v>
       </c>
       <c r="J1139" t="n">
-        <v>7.242500000000001</v>
+        <v>7.2425</v>
       </c>
     </row>
     <row r="1140">
@@ -36745,7 +36745,7 @@
         <v>8.67</v>
       </c>
       <c r="J1140" t="n">
-        <v>8.671249999999999</v>
+        <v>8.671250000000001</v>
       </c>
     </row>
     <row r="1141">
@@ -36905,7 +36905,7 @@
         <v>7.9</v>
       </c>
       <c r="J1145" t="n">
-        <v>7.900000000000001</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="1146">
@@ -36937,7 +36937,7 @@
         <v>7.74</v>
       </c>
       <c r="J1146" t="n">
-        <v>7.742500000000001</v>
+        <v>7.7425</v>
       </c>
     </row>
     <row r="1147">
@@ -36969,7 +36969,7 @@
         <v>5.57</v>
       </c>
       <c r="J1147" t="n">
-        <v>5.57125</v>
+        <v>5.571250000000001</v>
       </c>
     </row>
     <row r="1148">
@@ -37097,7 +37097,7 @@
         <v>8.16</v>
       </c>
       <c r="J1151" t="n">
-        <v>8.157500000000001</v>
+        <v>8.157499999999999</v>
       </c>
     </row>
     <row r="1152">
@@ -37481,7 +37481,7 @@
         <v>7.93</v>
       </c>
       <c r="J1163" t="n">
-        <v>7.930000000000001</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="1164">
@@ -37513,7 +37513,7 @@
         <v>9.33</v>
       </c>
       <c r="J1164" t="n">
-        <v>9.331249999999999</v>
+        <v>9.331250000000001</v>
       </c>
     </row>
     <row r="1165">
@@ -37705,7 +37705,7 @@
         <v>7.23</v>
       </c>
       <c r="J1170" t="n">
-        <v>7.231250000000001</v>
+        <v>7.23125</v>
       </c>
     </row>
     <row r="1171">
@@ -37801,7 +37801,7 @@
         <v>4.66</v>
       </c>
       <c r="J1173" t="n">
-        <v>4.661250000000001</v>
+        <v>4.66125</v>
       </c>
     </row>
     <row r="1174">
@@ -37865,7 +37865,7 @@
         <v>7.86</v>
       </c>
       <c r="J1175" t="n">
-        <v>7.85875</v>
+        <v>7.858749999999999</v>
       </c>
     </row>
     <row r="1176">
@@ -37929,7 +37929,7 @@
         <v>9.6</v>
       </c>
       <c r="J1177" t="n">
-        <v>9.602500000000001</v>
+        <v>9.602499999999999</v>
       </c>
     </row>
     <row r="1178">
@@ -38153,7 +38153,7 @@
         <v>4.1</v>
       </c>
       <c r="J1184" t="n">
-        <v>4.102499999999999</v>
+        <v>4.1025</v>
       </c>
     </row>
     <row r="1185">
@@ -38441,7 +38441,7 @@
         <v>9.4</v>
       </c>
       <c r="J1193" t="n">
-        <v>9.402500000000002</v>
+        <v>9.4025</v>
       </c>
     </row>
     <row r="1194">
@@ -38505,7 +38505,7 @@
         <v>4.55</v>
       </c>
       <c r="J1195" t="n">
-        <v>4.54625</v>
+        <v>4.546250000000001</v>
       </c>
     </row>
     <row r="1196">
@@ -39337,7 +39337,7 @@
         <v>5.97</v>
       </c>
       <c r="J1221" t="n">
-        <v>5.97375</v>
+        <v>5.973749999999999</v>
       </c>
     </row>
     <row r="1222">
@@ -39593,7 +39593,7 @@
         <v>8.869999999999999</v>
       </c>
       <c r="J1229" t="n">
-        <v>8.873749999999999</v>
+        <v>8.873750000000001</v>
       </c>
     </row>
     <row r="1230">
@@ -39657,7 +39657,7 @@
         <v>6.2</v>
       </c>
       <c r="J1231" t="n">
-        <v>6.2025</v>
+        <v>6.202500000000001</v>
       </c>
     </row>
     <row r="1232">
@@ -39817,7 +39817,7 @@
         <v>9.43</v>
       </c>
       <c r="J1236" t="n">
-        <v>9.431249999999999</v>
+        <v>9.43125</v>
       </c>
     </row>
     <row r="1237">
@@ -40105,7 +40105,7 @@
         <v>6.27</v>
       </c>
       <c r="J1245" t="n">
-        <v>6.27375</v>
+        <v>6.273750000000001</v>
       </c>
     </row>
     <row r="1246">
@@ -40489,7 +40489,7 @@
         <v>6.69</v>
       </c>
       <c r="J1257" t="n">
-        <v>6.688749999999999</v>
+        <v>6.688750000000001</v>
       </c>
     </row>
     <row r="1258">
@@ -40809,7 +40809,7 @@
         <v>6.15</v>
       </c>
       <c r="J1267" t="n">
-        <v>6.146249999999999</v>
+        <v>6.14625</v>
       </c>
     </row>
     <row r="1268">
@@ -40873,7 +40873,7 @@
         <v>4.37</v>
       </c>
       <c r="J1269" t="n">
-        <v>4.373749999999999</v>
+        <v>4.37375</v>
       </c>
     </row>
     <row r="1270">
@@ -41161,7 +41161,7 @@
         <v>6.46</v>
       </c>
       <c r="J1278" t="n">
-        <v>6.459999999999999</v>
+        <v>6.460000000000001</v>
       </c>
     </row>
     <row r="1279">
@@ -41545,7 +41545,7 @@
         <v>8.960000000000001</v>
       </c>
       <c r="J1290" t="n">
-        <v>8.959999999999999</v>
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="1291">
@@ -41609,7 +41609,7 @@
         <v>4.1</v>
       </c>
       <c r="J1292" t="n">
-        <v>4.102499999999999</v>
+        <v>4.1025</v>
       </c>
     </row>
     <row r="1293">
@@ -41929,7 +41929,7 @@
         <v>6.26</v>
       </c>
       <c r="J1302" t="n">
-        <v>6.259999999999999</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="1303">
@@ -41961,7 +41961,7 @@
         <v>4.55</v>
       </c>
       <c r="J1303" t="n">
-        <v>4.54625</v>
+        <v>4.546250000000001</v>
       </c>
     </row>
     <row r="1304">
@@ -42025,7 +42025,7 @@
         <v>6.16</v>
       </c>
       <c r="J1305" t="n">
-        <v>6.161250000000001</v>
+        <v>6.16125</v>
       </c>
     </row>
     <row r="1306">
@@ -42441,7 +42441,7 @@
         <v>6.29</v>
       </c>
       <c r="J1318" t="n">
-        <v>6.290000000000001</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="1319">
@@ -42473,7 +42473,7 @@
         <v>8.19</v>
       </c>
       <c r="J1319" t="n">
-        <v>8.187500000000002</v>
+        <v>8.1875</v>
       </c>
     </row>
     <row r="1320">
@@ -42759,7 +42759,7 @@
         <v>5.62</v>
       </c>
       <c r="J1328" t="n">
-        <v>5.6175</v>
+        <v>5.617500000000001</v>
       </c>
     </row>
     <row r="1329">
@@ -42823,7 +42823,7 @@
         <v>6.26</v>
       </c>
       <c r="J1330" t="n">
-        <v>6.260000000000001</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="1331">
@@ -43111,7 +43111,7 @@
         <v>6.09</v>
       </c>
       <c r="J1339" t="n">
-        <v>6.088749999999999</v>
+        <v>6.08875</v>
       </c>
     </row>
     <row r="1340">
@@ -43527,7 +43527,7 @@
         <v>4.63</v>
       </c>
       <c r="J1352" t="n">
-        <v>4.631250000000001</v>
+        <v>4.63125</v>
       </c>
     </row>
     <row r="1353">
@@ -43623,7 +43623,7 @@
         <v>9.5</v>
       </c>
       <c r="J1355" t="n">
-        <v>9.5025</v>
+        <v>9.502500000000001</v>
       </c>
     </row>
     <row r="1356">
@@ -43815,7 +43815,7 @@
         <v>9.890000000000001</v>
       </c>
       <c r="J1361" t="n">
-        <v>9.88875</v>
+        <v>9.888750000000002</v>
       </c>
     </row>
     <row r="1362">
@@ -43943,7 +43943,7 @@
         <v>6.4</v>
       </c>
       <c r="J1365" t="n">
-        <v>6.402499999999999</v>
+        <v>6.4025</v>
       </c>
     </row>
     <row r="1366">
@@ -44007,7 +44007,7 @@
         <v>7.93</v>
       </c>
       <c r="J1367" t="n">
-        <v>7.931249999999999</v>
+        <v>7.93125</v>
       </c>
     </row>
     <row r="1368">
@@ -44231,7 +44231,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="J1374" t="n">
-        <v>9.446250000000001</v>
+        <v>9.446249999999999</v>
       </c>
     </row>
     <row r="1375">
@@ -44359,7 +44359,7 @@
         <v>7.79</v>
       </c>
       <c r="J1378" t="n">
-        <v>7.788749999999999</v>
+        <v>7.78875</v>
       </c>
     </row>
     <row r="1379">
@@ -44391,7 +44391,7 @@
         <v>8</v>
       </c>
       <c r="J1379" t="n">
-        <v>8.002500000000001</v>
+        <v>8.0025</v>
       </c>
     </row>
     <row r="1380">
@@ -44423,7 +44423,7 @@
         <v>9.949999999999999</v>
       </c>
       <c r="J1380" t="n">
-        <v>9.946250000000001</v>
+        <v>9.946249999999999</v>
       </c>
     </row>
     <row r="1381">
@@ -44647,7 +44647,7 @@
         <v>5.97</v>
       </c>
       <c r="J1387" t="n">
-        <v>5.97375</v>
+        <v>5.973750000000001</v>
       </c>
     </row>
     <row r="1388">
@@ -44792,6 +44792,20 @@
       <c r="I1392" t="inlineStr"/>
       <c r="J1392" t="inlineStr"/>
     </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B1393" t="inlineStr"/>
+      <c r="C1393" t="inlineStr"/>
+      <c r="D1393" t="inlineStr"/>
+      <c r="E1393" t="inlineStr"/>
+      <c r="F1393" t="inlineStr"/>
+      <c r="G1393" t="inlineStr"/>
+      <c r="H1393" t="inlineStr"/>
+      <c r="I1393" t="inlineStr"/>
+      <c r="J1393" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
+++ b/seven_station_series_output/data/CorrectedSeries_TMin_unrounded.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1393"/>
+  <dimension ref="A1:J1395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44782,29 +44782,107 @@
       <c r="A1392" s="2" t="n">
         <v>45597</v>
       </c>
-      <c r="B1392" t="inlineStr"/>
-      <c r="C1392" t="inlineStr"/>
-      <c r="D1392" t="inlineStr"/>
-      <c r="E1392" t="inlineStr"/>
-      <c r="F1392" t="inlineStr"/>
-      <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr"/>
-      <c r="I1392" t="inlineStr"/>
-      <c r="J1392" t="inlineStr"/>
+      <c r="B1392" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>9.399999999999999</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>10.63125</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B1393" t="inlineStr"/>
-      <c r="C1393" t="inlineStr"/>
-      <c r="D1393" t="inlineStr"/>
-      <c r="E1393" t="inlineStr"/>
+      <c r="B1393" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>14.2</v>
+      </c>
       <c r="F1393" t="inlineStr"/>
-      <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="inlineStr"/>
-      <c r="I1393" t="inlineStr"/>
-      <c r="J1393" t="inlineStr"/>
+      <c r="G1393" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F1394" t="inlineStr"/>
+      <c r="G1394" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>12.33714285714286</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1395" t="inlineStr"/>
+      <c r="C1395" t="inlineStr"/>
+      <c r="D1395" t="inlineStr"/>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
+      <c r="G1395" t="inlineStr"/>
+      <c r="H1395" t="inlineStr"/>
+      <c r="I1395" t="inlineStr"/>
+      <c r="J1395" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
